--- a/project03 - 요구사항 정의서(2).xlsx
+++ b/project03 - 요구사항 정의서(2).xlsx
@@ -2251,6 +2251,99 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2269,109 +2362,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2591,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2648,22 +2648,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="98"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2685,20 +2685,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="101"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="132"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2824,44 +2824,44 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="102" t="s">
+      <c r="M7" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="103" t="s">
+      <c r="N7" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="105" t="s">
+      <c r="O7" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="105" t="s">
+      <c r="P7" s="110" t="s">
         <v>76</v>
       </c>
       <c r="Q7" s="1"/>
@@ -2883,12 +2883,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="102"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="18">
         <v>43865</v>
       </c>
@@ -2896,11 +2896,11 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2920,11 +2920,11 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="48">
-      <c r="A9" s="131"/>
-      <c r="B9" s="116" t="s">
+      <c r="A9" s="101"/>
+      <c r="B9" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="117"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="58" t="s">
         <v>77</v>
       </c>
@@ -2965,8 +2965,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A10" s="132"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="102"/>
+      <c r="B10" s="107" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -3010,8 +3010,8 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A11" s="132"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="15" t="s">
         <v>50</v>
       </c>
@@ -3053,8 +3053,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="60">
-      <c r="A12" s="132"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="15" t="s">
         <v>51</v>
       </c>
@@ -3096,8 +3096,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A13" s="132"/>
-      <c r="B13" s="119"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="15" t="s">
         <v>52</v>
       </c>
@@ -3141,8 +3141,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="48">
-      <c r="A14" s="132"/>
-      <c r="B14" s="112" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="115" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -3190,8 +3190,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="48">
-      <c r="A15" s="132"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="16" t="s">
         <v>55</v>
       </c>
@@ -3237,8 +3237,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A16" s="132"/>
-      <c r="B16" s="112" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="115" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -3286,8 +3286,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A17" s="132"/>
-      <c r="B17" s="114"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="15" t="s">
         <v>57</v>
       </c>
@@ -3333,8 +3333,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A18" s="132"/>
-      <c r="B18" s="114"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="15" t="s">
         <v>58</v>
       </c>
@@ -3380,8 +3380,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A19" s="132"/>
-      <c r="B19" s="114"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="15" t="s">
         <v>59</v>
       </c>
@@ -3427,8 +3427,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A20" s="132"/>
-      <c r="B20" s="114"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="15" t="s">
         <v>112</v>
       </c>
@@ -3476,8 +3476,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A21" s="132"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="16" t="s">
         <v>60</v>
       </c>
@@ -3521,8 +3521,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A22" s="132"/>
-      <c r="B22" s="109" t="s">
+      <c r="A22" s="102"/>
+      <c r="B22" s="112" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -3566,8 +3566,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A23" s="132"/>
-      <c r="B23" s="110"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="16" t="s">
         <v>61</v>
       </c>
@@ -3609,8 +3609,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A24" s="132"/>
-      <c r="B24" s="110"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="16" t="s">
         <v>62</v>
       </c>
@@ -3652,8 +3652,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A25" s="132"/>
-      <c r="B25" s="111"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="44" t="s">
         <v>63</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A26" s="133"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="27" t="s">
         <v>16</v>
       </c>
@@ -3742,13 +3742,13 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="42.75" customHeight="1" thickTop="1">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="130"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="59" t="s">
         <v>28</v>
       </c>
@@ -3787,8 +3787,8 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="60">
-      <c r="A28" s="135"/>
-      <c r="B28" s="115" t="s">
+      <c r="A28" s="105"/>
+      <c r="B28" s="108" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -3832,8 +3832,8 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="60">
-      <c r="A29" s="135"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="16" t="s">
         <v>66</v>
       </c>
@@ -3875,8 +3875,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="48">
-      <c r="A30" s="135"/>
-      <c r="B30" s="127" t="s">
+      <c r="A30" s="105"/>
+      <c r="B30" s="97" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -3924,8 +3924,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A31" s="135"/>
-      <c r="B31" s="128"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="16" t="s">
         <v>68</v>
       </c>
@@ -3971,7 +3971,7 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A32" s="135"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="19" t="s">
         <v>19</v>
       </c>
@@ -4018,8 +4018,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A33" s="135"/>
-      <c r="B33" s="118" t="s">
+      <c r="A33" s="105"/>
+      <c r="B33" s="107" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -4063,8 +4063,8 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A34" s="135"/>
-      <c r="B34" s="115"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="16" t="s">
         <v>61</v>
       </c>
@@ -4106,8 +4106,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A35" s="135"/>
-      <c r="B35" s="115"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="16" t="s">
         <v>62</v>
       </c>
@@ -4149,8 +4149,8 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A36" s="135"/>
-      <c r="B36" s="119"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="16" t="s">
         <v>70</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A37" s="135"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="123" t="s">
         <v>71</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A38" s="135"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="125" t="s">
         <v>72</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A39" s="136"/>
+      <c r="A39" s="106"/>
       <c r="B39" s="125" t="s">
         <v>73</v>
       </c>
@@ -12175,14 +12175,15 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="28">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A9:A26"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B14:B15"/>
@@ -12194,15 +12195,14 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="B33:B36"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
